--- a/Bloomberg Curve Building Replication.xlsx
+++ b/Bloomberg Curve Building Replication.xlsx
@@ -8,8 +8,11 @@
   </bookViews>
   <sheets>
     <sheet name="BBG Replica" sheetId="4" r:id="rId1"/>
-    <sheet name="BBG Data Tabel" sheetId="6" r:id="rId2"/>
-    <sheet name="BBG Data" sheetId="5" r:id="rId3"/>
+    <sheet name="BBG Data Table" sheetId="6" r:id="rId2"/>
+    <sheet name="BBG Input" sheetId="5" r:id="rId3"/>
+    <sheet name="BBG Input Tickers" sheetId="8" r:id="rId4"/>
+    <sheet name="BBG Output" sheetId="7" r:id="rId5"/>
+    <sheet name="BBG Output Tickers" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'BBG Replica'!$F$20</definedName>
@@ -45,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="129">
   <si>
     <t>Spot date</t>
   </si>
@@ -429,19 +432,21 @@
   </si>
   <si>
     <t>BDH(B28,"px_last","6/4/2018")</t>
+  </si>
+  <si>
+    <t>Bloomberg Output</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="0.000000000000"/>
+  <numFmts count="3">
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="0.0000000"/>
     <numFmt numFmtId="167" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -508,8 +513,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="9" tint="-0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -540,8 +552,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -573,12 +591,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -609,20 +640,8 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -630,9 +649,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -641,32 +657,18 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -709,6 +711,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -915,16 +932,97 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>25740</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>271030</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>120158</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9553575" cy="6784194"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>241453</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>124683</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>441477</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161490</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9494310" y="1235026"/>
+          <a:ext cx="3248024" cy="2627607"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>100555</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -941,8 +1039,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5524500" y="0"/>
-          <a:ext cx="9410700" cy="7371420"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9410700" cy="7049995"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -953,16 +1051,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>306705</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>263434</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>6724</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>63409</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>18402</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -979,84 +1077,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5412105" y="7381875"/>
-          <a:ext cx="9553575" cy="6889489"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>266702</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>466726</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>9096</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15125702" y="9342119"/>
-          <a:ext cx="3248024" cy="2599897"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>75898</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14982825" y="2712720"/>
-          <a:ext cx="6505575" cy="1333198"/>
+          <a:off x="9407434" y="2628900"/>
+          <a:ext cx="6505575" cy="1275702"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1358,24 +1380,25 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22:G23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="9" width="12.44140625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="12" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.88671875" style="10"/>
+    <col min="10" max="10" width="12" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="12" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1385,642 +1408,656 @@
       <c r="D1" s="11"/>
       <c r="E1" s="12"/>
       <c r="I1" s="13"/>
-      <c r="J1" s="10"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:15" s="22" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
+    </row>
+    <row r="3" spans="1:14" s="18" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="H3" s="50" t="s">
+      <c r="H3" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="J3" s="23"/>
-    </row>
-    <row r="4" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="36">
+      <c r="J3" s="37" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26">
         <v>43257</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38">
+      <c r="B4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28">
         <v>2.3138100000000002E-2</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="28">
         <v>2.3138100000000002E-2</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="39">
+      <c r="H4" s="28"/>
+      <c r="I4" s="52">
         <f>1/(1+B4*F4)</f>
         <v>1</v>
       </c>
-      <c r="J4" s="10"/>
+      <c r="J4" s="32"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-    </row>
-    <row r="5" spans="1:15" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33">
-        <f>'BBG Data Tabel'!C3+2</f>
+    </row>
+    <row r="5" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="24">
+        <f>'BBG Data Table'!C3+2</f>
         <v>43271</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="16">
         <f>(A5-$B$1)/360</f>
         <v>3.888888888888889E-2</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16">
         <f>(B6-B5)/(B6-B4)</f>
         <v>0.84782608695652173</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="16">
         <f>E5*F4+(1-E5)*F6</f>
         <v>2.3138100000000002E-2</v>
       </c>
-      <c r="G5" s="21">
-        <f>1-'BBG Data Tabel'!G3/100+'BBG Data Tabel'!I3/100</f>
+      <c r="G5" s="17">
+        <f>1-'BBG Data Table'!G3/100+'BBG Data Table'!I3/100</f>
         <v>2.3324499999999929E-2</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="34">
+      <c r="H5" s="16"/>
+      <c r="I5" s="53">
         <f>1/(1+B5*F5)</f>
         <v>0.99910099393913876</v>
       </c>
-      <c r="J5" s="31"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="24">
+      <c r="J5" s="16"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="19">
         <v>43349</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="20">
         <f t="shared" ref="B6:B19" si="0">(A6-$B$1)/360</f>
         <v>0.25555555555555554</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25">
-        <f>'BBG Data Tabel'!G2/100</f>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20">
+        <f>'BBG Data Table'!G2/100</f>
         <v>2.3138100000000002E-2</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="29">
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="54">
         <f>1/(1+B6*F6)</f>
         <v>0.99412168886522168</v>
       </c>
-      <c r="J6" s="10"/>
-    </row>
-    <row r="7" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19">
+      <c r="J6" s="57">
+        <v>0.99412199999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
         <v>43349</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="17">
         <f>(A7-$B$1)/360</f>
         <v>0.25555555555555554</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21">
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17">
         <f>E7*F5+(1-E7)*F6</f>
         <v>2.3138100000000002E-2</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="17">
         <f>((1+F9*B9)/(1+F7*B7)-1)/C9</f>
         <v>2.4669982462289762E-2</v>
       </c>
-      <c r="H7" s="21"/>
-      <c r="I7" s="28">
+      <c r="H7" s="17"/>
+      <c r="I7" s="55">
         <f>1/(1+B7*F7)</f>
         <v>0.99412168886522168</v>
       </c>
-      <c r="J7" s="31"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="26">
-        <f>'BBG Data Tabel'!E3</f>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="21">
+        <f>'BBG Data Table'!E3</f>
         <v>43362</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="22">
         <f>(A8-$B$1)/360</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="22">
         <f>B8-B5</f>
         <v>0.25277777777777777</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27">
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22">
         <f>(1/I8-1)/B8</f>
         <v>2.3317836036971937E-2</v>
       </c>
-      <c r="G8" s="27">
-        <f>1-'BBG Data Tabel'!G4/100+'BBG Data Tabel'!I4/100</f>
+      <c r="G8" s="22">
+        <f>1-'BBG Data Table'!G4/100+'BBG Data Table'!I4/100</f>
         <v>2.4794000000000045E-2</v>
       </c>
-      <c r="H8" s="27"/>
-      <c r="I8" s="30">
+      <c r="H8" s="22"/>
+      <c r="I8" s="56">
         <f>I5/(1+C8*G5)</f>
         <v>0.99324490612255578</v>
       </c>
-      <c r="J8" s="14"/>
-    </row>
-    <row r="9" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19">
+      <c r="J8" s="57">
+        <v>0.99324500000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="15">
         <v>43440</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="17">
         <f t="shared" si="0"/>
         <v>0.5083333333333333</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="17">
         <f t="shared" ref="C9:C19" si="1">B9-B7</f>
         <v>0.25277777777777777</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="17">
         <f>B9-B4</f>
         <v>0.5083333333333333</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="17">
         <f>(B10-B9)/(B10-B8)</f>
         <v>0.14285714285714282</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="17">
         <f>E9*F8+(1-E9)*F10</f>
         <v>2.3972394860051472E-2</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="17">
         <f>((1+F11*B11)/(1+F9*B9)-1)/C11</f>
         <v>2.6181987855173894E-2</v>
       </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="28">
+      <c r="H9" s="17"/>
+      <c r="I9" s="55">
         <f>1/(1+B9*F9)</f>
         <v>0.98796074261071887</v>
       </c>
-      <c r="J9" s="17"/>
+      <c r="J9" s="32"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="26">
-        <f>'BBG Data Tabel'!E4</f>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="21">
+        <f>'BBG Data Table'!E4</f>
         <v>43453</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="22">
         <f t="shared" si="0"/>
         <v>0.5444444444444444</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="22">
         <f t="shared" si="1"/>
         <v>0.25277777777777771</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27">
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22">
         <f>(1/I10-1)/B10</f>
         <v>2.4081487997231393E-2</v>
       </c>
-      <c r="G10" s="27">
-        <f>1-'BBG Data Tabel'!G5/100+'BBG Data Tabel'!I5/100</f>
+      <c r="G10" s="22">
+        <f>1-'BBG Data Table'!G5/100+'BBG Data Table'!I5/100</f>
         <v>2.6435399999999974E-2</v>
       </c>
-      <c r="H10" s="27"/>
-      <c r="I10" s="30">
+      <c r="H10" s="22"/>
+      <c r="I10" s="56">
         <f>I8/(1+G8*C10)</f>
         <v>0.98705864220668527</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19">
+      <c r="J10" s="57">
+        <v>0.98705900000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
         <v>43530</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="17">
         <f t="shared" si="0"/>
         <v>0.7583333333333333</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="17">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21">
+      <c r="D11" s="17"/>
+      <c r="E11" s="17">
         <f>(B12-B11)/(B12-B10)</f>
         <v>0.1538461538461541</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="17">
         <f>E11*F10+(1-E11)*F12</f>
         <v>2.4806014369477096E-2</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="17">
         <f>((1+F13*B13)/(1+F11*B11)-1)/C13</f>
         <v>2.7378631316635135E-2</v>
       </c>
-      <c r="H11" s="21"/>
-      <c r="I11" s="28">
+      <c r="H11" s="17"/>
+      <c r="I11" s="55">
         <f>1/(1+B11*F11)</f>
         <v>0.98153610104149802</v>
       </c>
-      <c r="J11" s="18"/>
+      <c r="J11" s="32"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="26">
-        <f>'BBG Data Tabel'!E5</f>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="21">
+        <f>'BBG Data Table'!E5</f>
         <v>43544</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="22">
         <f t="shared" si="0"/>
         <v>0.79722222222222228</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="22">
         <f t="shared" si="1"/>
         <v>0.25277777777777788</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27">
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22">
         <f>(1/I12-1)/B12</f>
         <v>2.4937746437158133E-2</v>
       </c>
-      <c r="G12" s="27">
-        <f>1-'BBG Data Tabel'!G6/100+'BBG Data Tabel'!I6/100</f>
+      <c r="G12" s="22">
+        <f>1-'BBG Data Table'!G6/100+'BBG Data Table'!I6/100</f>
         <v>2.7523699999999963E-2</v>
       </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="30">
+      <c r="H12" s="22"/>
+      <c r="I12" s="56">
         <f>I10/(1+G10*C12)</f>
         <v>0.9805066207905313</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19">
+      <c r="J12" s="57">
+        <v>0.98050700000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="15">
         <v>43622</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="17">
         <f t="shared" si="0"/>
         <v>1.0138888888888888</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="17">
         <f t="shared" si="1"/>
         <v>0.25555555555555554</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="17">
         <f>B13-B9</f>
         <v>0.50555555555555554</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="17">
         <f>(B14-B13)/(B14-B12)</f>
         <v>0.14285714285714324</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="17">
         <f>E13*F12+(1-E13)*F14</f>
         <v>2.5584269493404393E-2</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="17">
         <f>((1+F15*B15)/(1+F13*B13)-1)/C15</f>
         <v>2.838371618528001E-2</v>
       </c>
-      <c r="H13" s="21"/>
-      <c r="I13" s="28">
+      <c r="H13" s="17"/>
+      <c r="I13" s="55">
         <f>1/(1+B13*F13)</f>
         <v>0.97471624411067181</v>
       </c>
-      <c r="J13" s="18"/>
+      <c r="J13" s="32"/>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="26">
-        <f>'BBG Data Tabel'!E6</f>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="21">
+        <f>'BBG Data Table'!E6</f>
         <v>43635</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="22">
         <f t="shared" si="0"/>
         <v>1.05</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="22">
         <f t="shared" si="1"/>
         <v>0.25277777777777777</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27">
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22">
         <f>(1/I14-1)/B14</f>
         <v>2.5692023336112105E-2</v>
       </c>
-      <c r="G14" s="27">
-        <f>1-'BBG Data Tabel'!G7/100+'BBG Data Tabel'!I7/100</f>
+      <c r="G14" s="22">
+        <f>1-'BBG Data Table'!G7/100+'BBG Data Table'!I7/100</f>
         <v>2.8508900000000077E-2</v>
       </c>
-      <c r="H14" s="27"/>
-      <c r="I14" s="30">
+      <c r="H14" s="22"/>
+      <c r="I14" s="56">
         <f>I12/(1+G12*C14)</f>
         <v>0.97373199753599549</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19">
+      <c r="J14" s="57">
+        <v>0.97373200000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="15">
         <v>43714</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15" s="17">
         <f t="shared" si="0"/>
         <v>1.2694444444444444</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="17">
         <f t="shared" si="1"/>
         <v>0.25555555555555554</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21">
+      <c r="D15" s="17"/>
+      <c r="E15" s="17">
         <f>(B16-B15)/(B16-B14)</f>
         <v>0.13186813186813229</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="17">
         <f>E15*F14+(1-E15)*F16</f>
         <v>2.6296053386816034E-2</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="17">
         <f>((1+F17*B17)/(1+F15*B15)-1)/C17</f>
         <v>2.9110815365511768E-2</v>
       </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="28">
+      <c r="H15" s="17"/>
+      <c r="I15" s="55">
         <f>1/(1+B15*F15)</f>
         <v>0.96769694174400533</v>
       </c>
-      <c r="J15" s="18"/>
+      <c r="J15" s="32"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="26">
-        <f>'BBG Data Tabel'!E7</f>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="21">
+        <f>'BBG Data Table'!E7</f>
         <v>43726</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B16" s="22">
         <f t="shared" si="0"/>
         <v>1.3027777777777778</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="22">
         <f t="shared" si="1"/>
         <v>0.25277777777777777</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27">
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22">
         <f>(1/I16-1)/B16</f>
         <v>2.6387804786922962E-2</v>
       </c>
-      <c r="G16" s="27">
-        <f>1-'BBG Data Tabel'!G8/100+'BBG Data Tabel'!I8/100</f>
+      <c r="G16" s="22">
+        <f>1-'BBG Data Table'!G8/100+'BBG Data Table'!I8/100</f>
         <v>2.9191099999999998E-2</v>
       </c>
-      <c r="H16" s="27"/>
-      <c r="I16" s="30">
+      <c r="H16" s="22"/>
+      <c r="I16" s="56">
         <f>I14/(1+G14*C16)</f>
         <v>0.96676508577764186</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="19">
+      <c r="J16" s="57">
+        <v>0.96676499999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="15">
         <v>43805</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="17">
         <f t="shared" si="0"/>
         <v>1.5222222222222221</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="17">
         <f t="shared" si="1"/>
         <v>0.25277777777777777</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="17">
         <f>B17-B13</f>
         <v>0.5083333333333333</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="17">
         <f>(B18-B17)/(B18-B16)</f>
         <v>0.13186813186813229</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="17">
         <f>E17*F16+(1-E17)*F18</f>
         <v>2.692483700611471E-2</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="17">
         <f>((1+F19*B19)/(1+F17*B17)-1)/C19</f>
         <v>2.9103504153292391E-2</v>
       </c>
-      <c r="H17" s="21"/>
-      <c r="I17" s="28">
+      <c r="H17" s="17"/>
+      <c r="I17" s="55">
         <f>1/(1+B17*F17)</f>
         <v>0.96062809533357685</v>
       </c>
-      <c r="J17" s="18"/>
+      <c r="J17" s="32"/>
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="26">
-        <f>'BBG Data Tabel'!E8</f>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="21">
+        <f>'BBG Data Table'!E8</f>
         <v>43817</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="22">
         <f t="shared" si="0"/>
         <v>1.5555555555555556</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="22">
         <f t="shared" si="1"/>
         <v>0.25277777777777777</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27">
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22">
         <f>(1/I18-1)/B18</f>
         <v>2.7006411520422317E-2</v>
       </c>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="30">
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="56">
         <f>I16/(1+G16*C18)</f>
         <v>0.95968371268456809</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19">
+      <c r="J18" s="57">
+        <v>0.95968399999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="15">
         <v>43896</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19" s="17">
         <f t="shared" si="0"/>
         <v>1.7749999999999999</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="17">
         <f t="shared" si="1"/>
         <v>0.25277777777777777</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21">
+      <c r="D19" s="17"/>
+      <c r="E19" s="17">
         <f>(B20-B19)/(B20-B18)</f>
         <v>0.54335260115606943</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="17">
         <f>E19*F18+(1-E19)*F20</f>
         <v>2.7404971134463357E-2</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="17">
         <f>((1+F20*B20)/(1+F19*B19)-1)/C20</f>
         <v>2.9660212782377165E-2</v>
       </c>
-      <c r="H19" s="21"/>
-      <c r="I19" s="28">
+      <c r="H19" s="17"/>
+      <c r="I19" s="55">
         <f>I17/(1+G19*C19)</f>
         <v>0.95347943790556855</v>
       </c>
-      <c r="J19" s="18"/>
+      <c r="J19" s="32"/>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="19">
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="15">
         <v>43990</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="17">
         <f>(A20-$B$1)/360</f>
         <v>2.036111111111111</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="17">
         <f>B20-B19</f>
         <v>0.26111111111111107</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="17">
         <f>B20-B17</f>
         <v>0.51388888888888884</v>
       </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21">
+      <c r="E20" s="17"/>
+      <c r="F20" s="17">
         <v>2.7879206624588145E-2</v>
       </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="35">
-        <f>'BBG Data Tabel'!G9/100</f>
+      <c r="G20" s="17"/>
+      <c r="H20" s="25">
+        <f>'BBG Data Table'!G9/100</f>
         <v>2.7763049999999997E-2</v>
       </c>
-      <c r="I20" s="28">
+      <c r="I20" s="55">
         <f>I19/(1+G19*C20)</f>
         <v>0.94615185969611115</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="I21" s="40"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="47" t="s">
+      <c r="J20" s="57">
+        <v>0.94613999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I21" s="29"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="E22" s="46" t="s">
+      <c r="E22" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="F22" s="46" t="s">
+      <c r="F22" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="G22" s="46" t="s">
+      <c r="G22" s="33" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="48" t="s">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="E23" s="46">
+      <c r="E23" s="33">
         <f>H20*0.5*SUM(I9+I13+I17+I20)*1000000</f>
         <v>53713.963273341134</v>
       </c>
-      <c r="F23" s="46">
+      <c r="F23" s="33">
         <f>1000000*(F7*I7*B7+G7*I9*C9+G9*I11*C11+G11*I13*C13+G13*I15*C15+G15*I17*C17+G17*I19*C19+G19*I20*C20)</f>
         <v>53713.963273341258</v>
       </c>
-      <c r="G23" s="46">
+      <c r="G23" s="33">
         <f>F23-E23</f>
         <v>1.2369127944111824E-10</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="20" t="s">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="45" t="s">
+      <c r="C24" s="32" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2051,7 +2088,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>88</v>
       </c>
       <c r="B1" s="8" t="s">
@@ -2066,578 +2103,578 @@
       <c r="E1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="52">
+      <c r="C2" s="39">
         <v>43255</v>
       </c>
-      <c r="D2" s="52">
+      <c r="D2" s="39">
         <v>43347</v>
       </c>
-      <c r="E2" s="52">
+      <c r="E2" s="39">
         <f t="shared" ref="E2:E25" si="0">WORKDAY(D2,2)</f>
         <v>43349</v>
       </c>
-      <c r="F2" s="53"/>
-      <c r="G2" s="54">
+      <c r="F2" s="40"/>
+      <c r="G2" s="41">
         <v>2.3138100000000001</v>
       </c>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="56">
+      <c r="C3" s="43">
         <v>43269</v>
       </c>
-      <c r="D3" s="56">
+      <c r="D3" s="43">
         <v>43360</v>
       </c>
-      <c r="E3" s="56">
+      <c r="E3" s="43">
         <f t="shared" si="0"/>
         <v>43362</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57">
+      <c r="F3" s="44"/>
+      <c r="G3" s="44">
         <v>97.667500000000004</v>
       </c>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57">
+      <c r="H3" s="44"/>
+      <c r="I3" s="44">
         <v>-5.0000000000000002E-5</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56" t="s">
+      <c r="B4" s="43"/>
+      <c r="C4" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="56">
+      <c r="D4" s="43">
         <v>43451</v>
       </c>
-      <c r="E4" s="56">
+      <c r="E4" s="43">
         <f t="shared" si="0"/>
         <v>43453</v>
       </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57">
+      <c r="F4" s="44"/>
+      <c r="G4" s="44">
         <v>97.52</v>
       </c>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57">
+      <c r="H4" s="44"/>
+      <c r="I4" s="44">
         <v>-5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56">
+      <c r="B5" s="43"/>
+      <c r="C5" s="43">
         <v>43451</v>
       </c>
-      <c r="D5" s="56">
+      <c r="D5" s="43">
         <v>43542</v>
       </c>
-      <c r="E5" s="56">
+      <c r="E5" s="43">
         <f t="shared" si="0"/>
         <v>43544</v>
       </c>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57">
+      <c r="F5" s="44"/>
+      <c r="G5" s="44">
         <v>97.355000000000004</v>
       </c>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57">
+      <c r="H5" s="44"/>
+      <c r="I5" s="44">
         <v>-1.4599999999999999E-3</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56">
+      <c r="B6" s="43"/>
+      <c r="C6" s="43">
         <v>43542</v>
       </c>
-      <c r="D6" s="56">
+      <c r="D6" s="43">
         <v>43633</v>
       </c>
-      <c r="E6" s="56">
+      <c r="E6" s="43">
         <f t="shared" si="0"/>
         <v>43635</v>
       </c>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57">
+      <c r="F6" s="44"/>
+      <c r="G6" s="44">
         <v>97.245000000000005</v>
       </c>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57">
+      <c r="H6" s="44"/>
+      <c r="I6" s="44">
         <v>-2.63E-3</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56">
+      <c r="B7" s="43"/>
+      <c r="C7" s="43">
         <v>43633</v>
       </c>
-      <c r="D7" s="56">
+      <c r="D7" s="43">
         <v>43724</v>
       </c>
-      <c r="E7" s="56">
+      <c r="E7" s="43">
         <f t="shared" si="0"/>
         <v>43726</v>
       </c>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57">
+      <c r="F7" s="44"/>
+      <c r="G7" s="44">
         <v>97.144999999999996</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57">
+      <c r="H7" s="44"/>
+      <c r="I7" s="44">
         <v>-4.1099999999999999E-3</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="56">
+      <c r="C8" s="43">
         <v>43724</v>
       </c>
-      <c r="D8" s="56">
+      <c r="D8" s="43">
         <v>43815</v>
       </c>
-      <c r="E8" s="56">
+      <c r="E8" s="43">
         <f t="shared" si="0"/>
         <v>43817</v>
       </c>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57">
+      <c r="F8" s="44"/>
+      <c r="G8" s="44">
         <v>97.075000000000003</v>
       </c>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57">
+      <c r="H8" s="44"/>
+      <c r="I8" s="44">
         <v>-5.8900000000000003E-3</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="59">
+      <c r="C9" s="46">
         <v>43255</v>
       </c>
-      <c r="D9" s="59">
+      <c r="D9" s="46">
         <v>43986</v>
       </c>
-      <c r="E9" s="59">
+      <c r="E9" s="46">
         <f t="shared" si="0"/>
         <v>43990</v>
       </c>
-      <c r="F9" s="60">
+      <c r="F9" s="47">
         <v>2.7741699999999998</v>
       </c>
-      <c r="G9" s="60">
+      <c r="G9" s="47">
         <f>AVERAGE(F9,H9)</f>
         <v>2.7763049999999998</v>
       </c>
-      <c r="H9" s="60">
+      <c r="H9" s="47">
         <v>2.7784399999999998</v>
       </c>
-      <c r="I9" s="60"/>
+      <c r="I9" s="47"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="61">
+      <c r="B10" s="48">
         <v>3</v>
       </c>
-      <c r="C10" s="59">
+      <c r="C10" s="46">
         <v>43255</v>
       </c>
-      <c r="D10" s="59">
+      <c r="D10" s="46">
         <v>44351</v>
       </c>
-      <c r="E10" s="59">
+      <c r="E10" s="46">
         <f t="shared" si="0"/>
         <v>44355</v>
       </c>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="61">
+      <c r="B11" s="48">
         <v>4</v>
       </c>
-      <c r="C11" s="59">
+      <c r="C11" s="46">
         <v>43255</v>
       </c>
-      <c r="D11" s="59">
+      <c r="D11" s="46">
         <v>44716</v>
       </c>
-      <c r="E11" s="59">
+      <c r="E11" s="46">
         <f t="shared" si="0"/>
         <v>44719</v>
       </c>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="61">
+      <c r="B12" s="48">
         <v>5</v>
       </c>
-      <c r="C12" s="59">
+      <c r="C12" s="46">
         <v>43255</v>
       </c>
-      <c r="D12" s="59">
+      <c r="D12" s="46">
         <v>45081</v>
       </c>
-      <c r="E12" s="59">
+      <c r="E12" s="46">
         <f t="shared" si="0"/>
         <v>45083</v>
       </c>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="61">
+      <c r="B13" s="48">
         <v>6</v>
       </c>
-      <c r="C13" s="59">
+      <c r="C13" s="46">
         <v>43255</v>
       </c>
-      <c r="D13" s="59">
+      <c r="D13" s="46">
         <v>45447</v>
       </c>
-      <c r="E13" s="59">
+      <c r="E13" s="46">
         <f t="shared" si="0"/>
         <v>45449</v>
       </c>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="61">
+      <c r="B14" s="48">
         <v>7</v>
       </c>
-      <c r="C14" s="59">
+      <c r="C14" s="46">
         <v>43255</v>
       </c>
-      <c r="D14" s="59">
+      <c r="D14" s="46">
         <v>45812</v>
       </c>
-      <c r="E14" s="59">
+      <c r="E14" s="46">
         <f t="shared" si="0"/>
         <v>45814</v>
       </c>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="61">
+      <c r="B15" s="48">
         <v>8</v>
       </c>
-      <c r="C15" s="59">
+      <c r="C15" s="46">
         <v>43255</v>
       </c>
-      <c r="D15" s="59">
+      <c r="D15" s="46">
         <v>46177</v>
       </c>
-      <c r="E15" s="59">
+      <c r="E15" s="46">
         <f t="shared" si="0"/>
         <v>46181</v>
       </c>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="61">
+      <c r="B16" s="48">
         <v>9</v>
       </c>
-      <c r="C16" s="59">
+      <c r="C16" s="46">
         <v>43255</v>
       </c>
-      <c r="D16" s="59">
+      <c r="D16" s="46">
         <v>46542</v>
       </c>
-      <c r="E16" s="59">
+      <c r="E16" s="46">
         <f t="shared" si="0"/>
         <v>46546</v>
       </c>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="61">
+      <c r="B17" s="48">
         <v>10</v>
       </c>
-      <c r="C17" s="59">
+      <c r="C17" s="46">
         <v>43255</v>
       </c>
-      <c r="D17" s="59">
+      <c r="D17" s="46">
         <v>46908</v>
       </c>
-      <c r="E17" s="59">
+      <c r="E17" s="46">
         <f t="shared" si="0"/>
         <v>46910</v>
       </c>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="61">
+      <c r="B18" s="48">
         <v>11</v>
       </c>
-      <c r="C18" s="59">
+      <c r="C18" s="46">
         <v>43255</v>
       </c>
-      <c r="D18" s="59">
+      <c r="D18" s="46">
         <v>47273</v>
       </c>
-      <c r="E18" s="59">
+      <c r="E18" s="46">
         <f t="shared" si="0"/>
         <v>47275</v>
       </c>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="58" t="s">
+      <c r="A19" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="61">
+      <c r="B19" s="48">
         <v>12</v>
       </c>
-      <c r="C19" s="59">
+      <c r="C19" s="46">
         <v>43255</v>
       </c>
-      <c r="D19" s="59">
+      <c r="D19" s="46">
         <v>47638</v>
       </c>
-      <c r="E19" s="59">
+      <c r="E19" s="46">
         <f t="shared" si="0"/>
         <v>47640</v>
       </c>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="61">
+      <c r="B20" s="48">
         <v>15</v>
       </c>
-      <c r="C20" s="59">
+      <c r="C20" s="46">
         <v>43255</v>
       </c>
-      <c r="D20" s="59">
+      <c r="D20" s="46">
         <v>48734</v>
       </c>
-      <c r="E20" s="59">
+      <c r="E20" s="46">
         <f t="shared" si="0"/>
         <v>48737</v>
       </c>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="58" t="s">
+      <c r="A21" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="61">
+      <c r="B21" s="48">
         <v>20</v>
       </c>
-      <c r="C21" s="59">
+      <c r="C21" s="46">
         <v>43255</v>
       </c>
-      <c r="D21" s="59">
+      <c r="D21" s="46">
         <v>50560</v>
       </c>
-      <c r="E21" s="59">
+      <c r="E21" s="46">
         <f t="shared" si="0"/>
         <v>50564</v>
       </c>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="58" t="s">
+      <c r="A22" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="61">
+      <c r="B22" s="48">
         <v>25</v>
       </c>
-      <c r="C22" s="59">
+      <c r="C22" s="46">
         <v>43255</v>
       </c>
-      <c r="D22" s="59">
+      <c r="D22" s="46">
         <v>52386</v>
       </c>
-      <c r="E22" s="59">
+      <c r="E22" s="46">
         <f t="shared" si="0"/>
         <v>52390</v>
       </c>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="58" t="s">
+      <c r="A23" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="61">
+      <c r="B23" s="48">
         <v>30</v>
       </c>
-      <c r="C23" s="59">
+      <c r="C23" s="46">
         <v>43255</v>
       </c>
-      <c r="D23" s="59">
+      <c r="D23" s="46">
         <v>54213</v>
       </c>
-      <c r="E23" s="59">
+      <c r="E23" s="46">
         <f t="shared" si="0"/>
         <v>54217</v>
       </c>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="58" t="s">
+      <c r="A24" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="61">
+      <c r="B24" s="48">
         <v>40</v>
       </c>
-      <c r="C24" s="59">
+      <c r="C24" s="46">
         <v>43255</v>
       </c>
-      <c r="D24" s="59">
+      <c r="D24" s="46">
         <v>57865</v>
       </c>
-      <c r="E24" s="59">
+      <c r="E24" s="46">
         <f t="shared" si="0"/>
         <v>57867</v>
       </c>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="60"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="58" t="s">
+      <c r="A25" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="59">
+      <c r="C25" s="46">
         <v>43255</v>
       </c>
-      <c r="D25" s="59">
+      <c r="D25" s="46">
         <v>61518</v>
       </c>
-      <c r="E25" s="59">
+      <c r="E25" s="46">
         <f t="shared" si="0"/>
         <v>61520</v>
       </c>
-      <c r="F25" s="60">
+      <c r="F25" s="47">
         <v>2.9155199999999999</v>
       </c>
-      <c r="G25" s="60">
+      <c r="G25" s="47">
         <f>AVERAGE(F25,H25)</f>
         <v>2.9264999999999999</v>
       </c>
-      <c r="H25" s="60">
+      <c r="H25" s="47">
         <v>2.9374799999999999</v>
       </c>
-      <c r="I25" s="60"/>
+      <c r="I25" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2648,8 +2685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:AD67"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2660,480 +2697,33 @@
     <col min="4" max="5" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8">
-        <v>1.712</v>
-      </c>
-      <c r="D8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9">
-        <v>1.7518799999999999</v>
-      </c>
-      <c r="D9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10">
-        <v>2.0129700000000001</v>
-      </c>
-      <c r="D10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11">
-        <v>2.1183800000000002</v>
-      </c>
-      <c r="D11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12">
-        <v>2.3138100000000001</v>
-      </c>
-      <c r="D12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13">
-        <v>2.4371900000000002</v>
-      </c>
-      <c r="D13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14">
-        <v>2.5003600000000001</v>
-      </c>
-      <c r="D14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15">
-        <v>2.57735</v>
-      </c>
-      <c r="D15" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16">
-        <v>2.6958700000000002</v>
-      </c>
-      <c r="D16" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17">
-        <v>2.77969</v>
-      </c>
-      <c r="D17" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18">
-        <v>2.8683800000000002</v>
-      </c>
-      <c r="D18" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19">
-        <v>2.9099699999999999</v>
-      </c>
-      <c r="D19" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20">
-        <v>2.93269</v>
-      </c>
-      <c r="D20" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21">
-        <v>2.9634299999999998</v>
-      </c>
-      <c r="D21" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22">
-        <v>3.0105</v>
-      </c>
-      <c r="D22" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23">
-        <v>3.05681</v>
-      </c>
-      <c r="D23" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24">
-        <v>3.05951</v>
-      </c>
-      <c r="D24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25">
-        <v>3.0377800000000001</v>
-      </c>
-      <c r="D25" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26">
-        <v>3.0036</v>
-      </c>
-      <c r="D26" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27">
-        <v>2.9381699999999999</v>
-      </c>
-      <c r="D27" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28">
-        <v>2.8583699999999999</v>
-      </c>
-      <c r="D28" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="7"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="7"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" s="43"/>
-      <c r="E34" s="41"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="42"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="41"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" s="42"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="41"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" s="42"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="41"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38" s="42"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="41"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C39" s="42"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="41"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="7"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B45" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B46" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B47" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B48" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B49" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B50" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B51" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="52" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B52" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="53" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B53" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B54" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B55" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="56" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B56" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B57" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="58" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B58" s="7"/>
-    </row>
-    <row r="63" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E34" s="30"/>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E35" s="30"/>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E36" s="30"/>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E37" s="30"/>
+    </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E38" s="30"/>
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E39" s="30"/>
+    </row>
+    <row r="63" spans="28:30" x14ac:dyDescent="0.3">
       <c r="AB63">
         <v>1.67</v>
       </c>
@@ -3156,10 +2746,516 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C34:D39"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="50"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="49"/>
+      <c r="C6" s="50"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="49"/>
+      <c r="C7" s="50"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="49"/>
+      <c r="C8" s="50"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="49"/>
+      <c r="C9" s="50"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="49"/>
+      <c r="C10" s="50"/>
+    </row>
+    <row r="11" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="597" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <v>1.712</v>
+      </c>
+      <c r="D3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>1.7518799999999999</v>
+      </c>
+      <c r="D4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5">
+        <v>2.0129700000000001</v>
+      </c>
+      <c r="D5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6">
+        <v>2.1183800000000002</v>
+      </c>
+      <c r="D6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7">
+        <v>2.3138100000000001</v>
+      </c>
+      <c r="D7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <v>2.4371900000000002</v>
+      </c>
+      <c r="D8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>2.5003600000000001</v>
+      </c>
+      <c r="D9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10">
+        <v>2.57735</v>
+      </c>
+      <c r="D10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11">
+        <v>2.6958700000000002</v>
+      </c>
+      <c r="D11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12">
+        <v>2.77969</v>
+      </c>
+      <c r="D12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13">
+        <v>2.8683800000000002</v>
+      </c>
+      <c r="D13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14">
+        <v>2.9099699999999999</v>
+      </c>
+      <c r="D14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15">
+        <v>2.93269</v>
+      </c>
+      <c r="D15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16">
+        <v>2.9634299999999998</v>
+      </c>
+      <c r="D16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17">
+        <v>3.0105</v>
+      </c>
+      <c r="D17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18">
+        <v>3.05681</v>
+      </c>
+      <c r="D18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19">
+        <v>3.05951</v>
+      </c>
+      <c r="D19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20">
+        <v>3.0377800000000001</v>
+      </c>
+      <c r="D20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21">
+        <v>3.0036</v>
+      </c>
+      <c r="D21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22">
+        <v>2.9381699999999999</v>
+      </c>
+      <c r="D22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23">
+        <v>2.8583699999999999</v>
+      </c>
+      <c r="D23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>